--- a/darkly/support/FlagsDeliveryForm2025.xlsx
+++ b/darkly/support/FlagsDeliveryForm2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandervestlund/Desktop/Komtek/Semester7/TTM4536/advanced-ethical-hacking/darkly/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7A8338-883F-FE48-98DA-33C29620ADCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99402CF6-EA1A-9B41-9D4D-775530867A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29920" windowHeight="17180" xr2:uid="{3B99F4AD-CEE1-DC44-B686-060F3982251E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{3B99F4AD-CEE1-DC44-B686-060F3982251E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -298,20 +298,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D61DB4-E8B1-E947-AFDC-03E9514E4201}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.83203125" defaultRowHeight="17"/>
@@ -651,12 +651,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="3" customFormat="1" ht="80" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:20" s="7" customFormat="1">
       <c r="A2" s="4"/>
@@ -722,55 +722,55 @@
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="P3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="8" t="s">
